--- a/medicine/Enfance/Violence_scolaire_en_France/Violence_scolaire_en_France.xlsx
+++ b/medicine/Enfance/Violence_scolaire_en_France/Violence_scolaire_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La violence scolaire en France désigne les actes violents réalisés dans les établissements scolaires français et dirigés contre les élèves, les enseignants ou les établissements eux-mêmes (dégradations, incendies).
 </t>
@@ -511,7 +523,9 @@
           <t>Mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élaborées par la Direction centrale de la sécurité publique, les premières statistiques générales sur la violence à l'école datent en France de 1994. La période 1994-1997 est marquée par une augmentation très modérée des actes de violence « envers les élèves » et « envers les personnels ». Surtout, le nombre d'actes recensés demeure limité. En 1997, les violences « envers les élèves », les plus nombreuses, ont concerné moins de 1 500 élèves. Rapportée au nombre d'élèves, cette violence scolaire est très inférieure à celle que connaît la société des adultes.
 Les violences à l'encontre des personnels de l'éducation nationale sont encore moins fréquentes. Ainsi en 1997, moins de 300 agressions sont constatées. De telles données justifient pleinement le constat de l'inspection générale de l'administration de l'Éducation nationale de l'époque. Dans son rapport de 1998, celle-ci considère que la violence constitue un phénomène marginal : « l'immense majorité des établissements est épargnée par les manifestations de violence avérée » ; « dans un environnement tendu, l'établissement apparaît, par contraste, comme une zone préservée » (Ministère de l'Éducation nationale, 1998).
@@ -546,7 +560,9 @@
           <t>La violence envers les enseignants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux raisons de s'intéresser spécifiquement à la violence envers les enseignants. D'abord, la représentation la plus usuelle de la violence scolaire retient essentiellement les violences envers les professeurs. Il est donc nécessaire de confronter la représentation ordinaire de la violence à sa connaissance statistique. Ensuite, il s'agit d'une violence strictement scolaire : elle est liée au processus d’apprentissage, à la relation maître-élèves.
 Sur les 80 000 incidents signalés en 2004-2005, 12 586 ont pour victime un enseignant, soit 15,7 %[réf. nécessaire]. Les violences envers les professeurs ne représentent donc qu'un pourcentage limité de la violence dite scolaire (surtout que les violences entre élèves sont sous-signalées par rapport à celle contre les profs)[réf. nécessaire]. Une question tout à fait centrale est celle de la gravité de ces violences. Un indicateur perçus comme pertinent[Par qui ?] est l'existence d'une plainte. Globalement, le recours à la plainte est très peu fréquent. Les 12 586 incidents dont sont victimes les professeurs débouchent sur seulement 173 plaintes (soit moins de 1,5 %).[réf. nécessaire] On retrouve encore une fois les ordres de grandeur publiés par la DCSP en 1997.
@@ -582,7 +598,9 @@
           <t>Selon les établissements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut exister un intérêt stratégique de l'établissement à sur-déclarer des insultes ou violences pour bénéficier par exemple du bénéfice d'un « plan de prévention violence » ou éventuellement à sous-déclarer des incidents pour préserver l'image de marque du collège ou du lycée. Encore que les données par établissement ne soient pas accessibles au public. Ces biais d'enregistrement existent. À eux seuls, ils ne peuvent expliquer qu'une part infime des différences inter-établissements constatées.
 Un certain nombre d'établissements, 8 % exactement, probablement les moins concernés objectivement et subjectivement par les violences scolaires, n'ont jamais recours au logiciel SIGNA. Et 15 % répondent à l'enquête annuelle en ne signalant aucun incident. Au total, sur 7 900 établissements, 1 800, soit 23 %, ne semblent pas du tout concernés par la question de la violence scolaire. Il existe donc une très grande disparité des situations.
@@ -616,10 +634,12 @@
           <t>Un phénomène médiatique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La violence à l'école a accédé au statut de marronnier (une actualité périodique : dans le cas de l'éducation, il s'agit par exemple de la rentrée scolaire, des élections des parents d'élèves, du bac (le plus jeune et le plus âgé des candidats etc.).
-Une étude consacrée à la couverture par la télévision des incidents de février 1996 montre que les collèges de banlieue sont surreprésentés et que la médiatisation d'un fait divers dépend également de la mobilisation des équipes pédagogiques à la suite de l'événement[1].
+Une étude consacrée à la couverture par la télévision des incidents de février 1996 montre que les collèges de banlieue sont surreprésentés et que la médiatisation d'un fait divers dépend également de la mobilisation des équipes pédagogiques à la suite de l'événement.
 Les enseignants n'hésitent plus à utiliser les médias dans le bras de fer qui les oppose à l'administration lors des mouvements sociaux (grèves, occupations…). De l'autre côté, le ministère utilise les médias comme « support » pour des « publi-reportages » sur les principaux axes de sa politique. Que ce soit pour les classes relais, les mesures de prévention, ou la mise en place de nouveautés pédagogiques, d'où ce double jeu pervers, où tout le monde accuse les médias d'en rajouter mais chacun essaye de s'en servir dans ses stratégies.[non neutre]
 Ainsi en cas de faits divers, alors que la hiérarchie de l'éducation nationale (Recteur, Inspecteur d'académie) donne aux chefs d'établissements la consigne de ne pas communiquer[réf. nécessaire], obligeant les journalistes à se rabattre sur les micro-trottoirs, les enseignants pour leur part s'offusquent de ce que les journalistes n'aient retenu de leurs déclarations que ce qui concerne la violence.
 Cette tentation utilitariste[non neutre] oublie que les médias doivent faire face à des contraintes matérielles très fortes dans un marché hyperconcurrentiel. De ce point de vue, une actualité dont le traitement favorise un préformatage et une scénarisation comme la violence à l'école, répond aux exigences de rapidité et d'efficacité et réduit le niveau de parasitage chez l'auditeur ou le téléspectateur[non neutre]. Ce dernier intégrant le fait divers dans une problématique plus large : celle de l'augmentation de l'insécurité ou de la délinquance des mineurs.
@@ -651,7 +671,9 @@
           <t>2018:Le phénomène PasDeVague</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2018, à la suite d'un fait divers dans un établissement scolaire[évasif], le hashtag #Pasdevague créé sur Twitter a rassemblé de très nombreux témoignages de professeurs[réf. nécessaire] montrant que les incivilités étaient largement sous-estimées dans la problématique de la violence scolaire[réf. nécessaire] et que, de manière générale, l'institution scolaire avait pris l'habitude de minimiser significativement les incidents scolaires[réf. nécessaire].
 Cette tendance à ne pas vouloir faire de bruit aurait eu pour conséquence d'installer des pratiques d'auto-censure et potentiellement une incomplétude des statistiques.[réf. nécessaire]
